--- a/extra-files/headers-lede.xlsx
+++ b/extra-files/headers-lede.xlsx
@@ -47,22 +47,22 @@
     <t>qihoo-c301</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>ath79</t>
+  </si>
+  <si>
+    <t>generic</t>
+  </si>
+  <si>
+    <t>qihoo_c301</t>
+  </si>
+  <si>
+    <t>phicomm-k3</t>
+  </si>
+  <si>
     <t>2</t>
-  </si>
-  <si>
-    <t>ath79</t>
-  </si>
-  <si>
-    <t>generic</t>
-  </si>
-  <si>
-    <t>qihoo_c301</t>
-  </si>
-  <si>
-    <t>phicomm-k3</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
   <si>
     <t>bcm53xx</t>
@@ -1525,7 +1525,7 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
